--- a/medicine/Enfance/Francis_Delivré/Francis_Delivré.xlsx
+++ b/medicine/Enfance/Francis_Delivré/Francis_Delivré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francis_Delivr%C3%A9</t>
+          <t>Francis_Delivré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Delivré, né le 19 août 1948[1] à Neufchâteau (Vosges)[2], est un sculpteur, peintre, illustrateur, dessinateur de presse, graphiste et auteur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Delivré, né le 19 août 1948 à Neufchâteau (Vosges), est un sculpteur, peintre, illustrateur, dessinateur de presse, graphiste et auteur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francis_Delivr%C3%A9</t>
+          <t>Francis_Delivré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est descendant du peintre, dessinateur et graveur français Édouard Detaille (1848-1912).
 Il a été professeur à l'École nationale supérieure des Arts Décoratifs de Paris (ENSAD), à l'École des Beaux Arts de Rennes, à l'ATEP (Paris) et à l'IAE de Nice.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Francis_Delivr%C3%A9</t>
+          <t>Francis_Delivré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,92 +559,206 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur
-Magazines
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Magazines
 Moi, je lis (Diabolo ) no 111  Voyage en trampoline. Texte de Francis Delivré, illustré par Catherine Nouvelle.  Pages de 3 à 41. Éditions Milan.
 Toupie  no 120 (Septembre 1995) Cahier central sur 8 pages : conception, textes et illustrations intitulés « Pourquoi ? » « Parce que » « En effet » « Et voilà » Éditions Milan
-Articles
-Illustrations
-Livres
+Articles</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francis_Delivré</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Delivr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Livres
 Élisabeth Brami (ill. Francis Délivré), Le dico des sorcières, Paris, Hachette jeunesse, 1994, 215 p. (ISBN 2-01-223016-4, BNF 35747263)
 Zeineb Dhaouri-Bauer (ill. Francis Délivré), Des mots et des fleurs, Paris, Flammarion, 2001, 105 p. (ISBN 2-7441-4904-7, BNF 37650585)
 Jean-Paul Ampe (ill. Francis Delivré), Humeurs d'assiette ! : un livre à picorer, Paris, Hermé, 2002, 127 p. (ISBN 2-86665-356-4, BNF 38928377)
 Xavier Parmentier (ill. Francis Délivré), Une boussole sur l'échiquier, Montpellier, Olibris, 2005, 323 p. (ISBN 2-916340-02-5, BNF 40155228)
-Articles
-Sculptures
-Sculptures de bronze :
+Articles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francis_Delivré</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Delivr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sculptures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sculptures de bronze :
 1980 : La Main d'Or, création de l'oscar en bronze destiné à récompenser chaque année les meilleurs jeunes stylistes dans le domaine de la mode au Salon du Prêt-à-Porter à Paris. Commande de Pennel et Flipo. Fonderie de Saint-Maur.
 1985 : Le Combat de coqs, trophée commandé par Bernard Pivot pour le championnat de France d'orthographe.
-Le Défi Haltérophile tiré à 1/8 et dont 1 exemplaire a été acheté par le Musée national du Sport (Paris) et désormais à Nice[3].
-Balle dans le filet acheté par le Musée national du Sport (Paris) et désormais à Nice[4].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Francis_Delivr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Le Défi Haltérophile tiré à 1/8 et dont 1 exemplaire a été acheté par le Musée national du Sport (Paris) et désormais à Nice.
+Balle dans le filet acheté par le Musée national du Sport (Paris) et désormais à Nice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Francis_Delivré</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Francis_Delivr%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Expositions personnelles
-1984 : Bibliothèque Georges Duhamel, Mantes-la-Jolie ;
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1984 : Bibliothèque Georges Duhamel, Mantes-la-Jolie ;
 2009 : Invité d'honneur du 2e Salon des Arts, Maisons-Laffitte ;
 2010 : Galerie Étienne de Causans, rue de Seine, Paris ;
-2013 : Galerie Ad Hoc Corner[5] à Saint-Paul-de-Vence, exposition de sculptures.
-Expositions collectives
-1972 Galerie Arts et Lettres, Nancy
+2013 : Galerie Ad Hoc Corner à Saint-Paul-de-Vence, exposition de sculptures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Francis_Delivré</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Delivr%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1972 Galerie Arts et Lettres, Nancy
 1975 : Xe Biennale Internazionale del Bronzetto Dantesco, Centro Dantesco, Ravenne (Italie)
 1983 : IVe Biennale du Petit Format, Dreux
 1988-1989  Exposition collective  100 bronzes, Galerie Sculptures, Paris
-2013 : Galerie d'Art Ferrero, Nice[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Francis_Delivr%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+2013 : Galerie d'Art Ferrero, Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Francis_Delivré</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Francis_Delivr%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1974 : Lauréat du Grand Prix de l’Humour Espoir Hebdo</t>
         </is>
